--- a/data/acad_watchlist_species.xlsx
+++ b/data/acad_watchlist_species.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylelima/Desktop/Projects/npf_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9FBABD-D6F5-FF44-8153-9E10E9342634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98004547-2E91-6E41-BB44-990FB9508838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" xr2:uid="{C070F80E-AFC0-4246-91D7-63122FEBE312}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="179">
   <si>
     <t>Achillea ptarmica</t>
   </si>
@@ -923,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7754563-4798-634B-89BE-DBBAAABC6080}">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="N166" sqref="N166"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>111</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>111</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>111</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>111</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
         <v>111</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>111</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>111</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>111</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>111</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>111</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
         <v>111</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>111</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
         <v>111</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
         <v>111</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
         <v>111</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
         <v>111</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
         <v>111</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
         <v>111</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>111</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
         <v>111</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
         <v>111</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
         <v>111</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
         <v>111</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
         <v>111</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
         <v>111</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>111</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>111</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
         <v>111</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
         <v>111</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
         <v>111</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
         <v>111</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
         <v>111</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
         <v>111</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
         <v>111</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>111</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
         <v>111</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>111</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
         <v>111</v>
@@ -2136,40 +2136,40 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
         <v>160</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
         <v>160</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
         <v>160</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
         <v>160</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
         <v>160</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
         <v>160</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
         <v>160</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
         <v>160</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
         <v>160</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="B121" t="s">
         <v>160</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
         <v>160</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
         <v>160</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
         <v>160</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
         <v>160</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
         <v>160</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
         <v>160</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
         <v>160</v>
@@ -2345,18 +2345,18 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
         <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
         <v>160</v>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
         <v>113</v>
@@ -2378,18 +2378,18 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
         <v>159</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
         <v>159</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
         <v>159</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
         <v>159</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
         <v>159</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
         <v>159</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>159</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>159</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>159</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
         <v>159</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
         <v>159</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
         <v>159</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
         <v>159</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
         <v>159</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
         <v>159</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
         <v>159</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
         <v>159</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B150" t="s">
         <v>159</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
         <v>159</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>159</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>159</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B155" t="s">
         <v>159</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>159</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C157" t="s">
         <v>113</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C158" t="s">
         <v>113</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
         <v>165</v>
@@ -2686,73 +2686,73 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
         <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
         <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
@@ -2774,56 +2774,34 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
         <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>177</v>
-      </c>
-      <c r="B171" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>178</v>
-      </c>
-      <c r="B172" t="s">
-        <v>176</v>
-      </c>
-      <c r="C172" t="s">
         <v>113</v>
       </c>
     </row>
